--- a/p_values_SVM_vs_Logistic_Regression.xlsx
+++ b/p_values_SVM_vs_Logistic_Regression.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accuracy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sensitivity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specificity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.488948572779932e-09</v>
+        <v>0.0002128252107862919</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.199103843543286e-15</v>
+        <v>1.145781511271769e-09</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.59767696141557e-14</v>
+        <v>3.305330308701928e-11</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.41628751261268e-12</v>
+        <v>3.966393829404995e-06</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.758892821322536e-12</v>
+        <v>0.0002359094728482388</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +499,9 @@
           <t>Edema</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.6458193724941474</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -504,7 +509,9 @@
           <t>Consolidation</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0.4810354618668555</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -512,7 +519,9 @@
           <t>Pneumonia</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.4114092843294668</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -521,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.199058006587338e-13</v>
+        <v>9.676120958826558e-08</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +539,9 @@
           <t>Pneumothorax</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0.5687961862177977</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -539,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03077138103808364</v>
+        <v>0.7971523011509373</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +559,9 @@
           <t>Pleural Other</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0.7337064117636249</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -557,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.666264137698648</v>
+        <v>0.702653923514821</v>
       </c>
     </row>
     <row r="15">
@@ -567,7 +580,485 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.949417667307079e-06</v>
+        <v>0.21642457043528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.380069232509859e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.179494705889457e-12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.051714912441394e-15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.948497759509332e-07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.654047736768143e-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.832615081714739e-11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5303175914087934</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01280702484980196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0009819830293217565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6456208564932489</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1192517716083334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.004245826677922784</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.681494340304343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.219098907292208</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.57285386549188e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.329876800921125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.007464733364674683</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.009398797225601696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.822772351199131e-35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6.822772351199131e-35</v>
       </c>
     </row>
   </sheetData>
